--- a/results/MVSE/aminer/MVSE_aminer<l05>AllRes_85.40.xlsx
+++ b/results/MVSE/aminer/MVSE_aminer<l05>AllRes_85.40.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,7 +777,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -815,36 +815,34 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>WL_0_0_1</t>
+          <t>WL_0.2_0.2_0.6</t>
         </is>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>0.54</v>
+        <v>0.64</v>
       </c>
       <c r="M6" t="n">
-        <v>85.20999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="O6" t="n">
-        <v>0.29</v>
+        <v>0.72</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-15_04_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-01_19_28', 'cl_mode': 'WL_0.2_0.2_0.6', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -870,7 +868,7 @@
         <v>128</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H7" t="n">
         <v>50</v>
@@ -886,23 +884,23 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="M7" t="n">
-        <v>85.2</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="O7" t="n">
-        <v>0.31</v>
+        <v>0.72</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-22_17_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-23_40_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -911,7 +909,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -956,23 +954,157 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="M8" t="n">
+        <v>85.20999999999999</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-15_04_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>128</v>
+      </c>
+      <c r="G9" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" t="n">
+        <v>50</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="M9" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-22_17_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>128</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>50</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
         <v>0.61</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M10" t="n">
         <v>85</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N10" t="n">
         <v>0.04</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O10" t="n">
         <v>0.41</v>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-18_05_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q10" t="n">
         <v>1</v>
       </c>
     </row>
